--- a/data/trans_orig/P6706-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6706-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>46360</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36037</v>
+        <v>34920</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60661</v>
+        <v>59634</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2579643065576054</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2005231551068536</v>
+        <v>0.1943039142078828</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3375380842394791</v>
+        <v>0.3318230325479094</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -764,19 +764,19 @@
         <v>36612</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27438</v>
+        <v>27461</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48738</v>
+        <v>48339</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2711771149214976</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2032278369442957</v>
+        <v>0.2033967075289886</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3609881410805683</v>
+        <v>0.3580323107229529</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>78</v>
@@ -785,19 +785,19 @@
         <v>82972</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>68503</v>
+        <v>68521</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>101047</v>
+        <v>100438</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2636323239972594</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2176575143490274</v>
+        <v>0.2177152777422882</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3210619600805198</v>
+        <v>0.3191251636471351</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>25855</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17518</v>
+        <v>17493</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35810</v>
+        <v>36385</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1438652025152016</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09747707391460346</v>
+        <v>0.09733944142967348</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1992605903264408</v>
+        <v>0.2024561592595302</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -835,19 +835,19 @@
         <v>21971</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13733</v>
+        <v>14580</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31965</v>
+        <v>32235</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1627366383503808</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1017143125070678</v>
+        <v>0.107993255711775</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2367535257308028</v>
+        <v>0.2387563945100894</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>47</v>
@@ -856,19 +856,19 @@
         <v>47826</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>36579</v>
+        <v>35248</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>61677</v>
+        <v>61351</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1519606523604758</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1162229553160131</v>
+        <v>0.1119936739163719</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.195969307022328</v>
+        <v>0.1949339768544013</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>34148</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24173</v>
+        <v>23725</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45358</v>
+        <v>44960</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1900131653297752</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1345064906045949</v>
+        <v>0.1320114114278615</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2523875289372819</v>
+        <v>0.2501715006478571</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>26</v>
@@ -906,19 +906,19 @@
         <v>28674</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20129</v>
+        <v>20057</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>40503</v>
+        <v>39507</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2123834808150156</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1490924053527651</v>
+        <v>0.1485577782963888</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.299995337272259</v>
+        <v>0.2926157257911192</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>59</v>
@@ -927,19 +927,19 @@
         <v>62823</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>48728</v>
+        <v>50077</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>78261</v>
+        <v>78661</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1996095611003678</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1548250874514084</v>
+        <v>0.1591118681887539</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2486608450876388</v>
+        <v>0.2499319852436965</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>31063</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22170</v>
+        <v>21035</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43477</v>
+        <v>42877</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1728435765042411</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1233600286077887</v>
+        <v>0.1170441948968658</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2419184032137232</v>
+        <v>0.2385806752230789</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -977,19 +977,19 @@
         <v>6335</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2161</v>
+        <v>3039</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13634</v>
+        <v>12865</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04692206086445604</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01600807880536927</v>
+        <v>0.02250856864697474</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1009848582720039</v>
+        <v>0.09528501394520518</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -998,19 +998,19 @@
         <v>37398</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26155</v>
+        <v>26577</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>50128</v>
+        <v>50325</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1188258894980152</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08310407724419397</v>
+        <v>0.08444480934719178</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1592747674977726</v>
+        <v>0.1598999729992602</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>42290</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>31030</v>
+        <v>31749</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>53560</v>
+        <v>53856</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2353137490931768</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1726603285770243</v>
+        <v>0.1766614490950851</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2980245053124687</v>
+        <v>0.2996737376566281</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>38</v>
@@ -1048,19 +1048,19 @@
         <v>41419</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>31562</v>
+        <v>30896</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>53763</v>
+        <v>52845</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.30678070504865</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2337750448069373</v>
+        <v>0.2288377388415414</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.398210012851598</v>
+        <v>0.3914077046583037</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>79</v>
@@ -1069,19 +1069,19 @@
         <v>83709</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>69122</v>
+        <v>68732</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>100716</v>
+        <v>100070</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2659715730438818</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2196239743811124</v>
+        <v>0.2183842489941206</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3200086436129129</v>
+        <v>0.3179560310904814</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>180771</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>155707</v>
+        <v>158133</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>206311</v>
+        <v>205397</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.199753920345233</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1720575815187734</v>
+        <v>0.1747382270950353</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2279756595818938</v>
+        <v>0.2269659199874244</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>80</v>
@@ -1194,19 +1194,19 @@
         <v>86333</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>69893</v>
+        <v>69424</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>106226</v>
+        <v>101787</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1518197419675616</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1229090792066367</v>
+        <v>0.1220846368470089</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1868021650428116</v>
+        <v>0.1789962940934559</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>251</v>
@@ -1215,19 +1215,19 @@
         <v>267104</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>238474</v>
+        <v>238002</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>300075</v>
+        <v>294734</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1812566032654276</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1618282704165668</v>
+        <v>0.1615080807219329</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2036306744883845</v>
+        <v>0.2000059179094697</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>97619</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>80206</v>
+        <v>80571</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>116770</v>
+        <v>116507</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1078697782275451</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0886285305044768</v>
+        <v>0.08903224258369549</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1290317265939477</v>
+        <v>0.1287416696648384</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>72</v>
@@ -1265,19 +1265,19 @@
         <v>78128</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>63196</v>
+        <v>62824</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>98290</v>
+        <v>97406</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1373904483261802</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1111318456036648</v>
+        <v>0.1104773794645926</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.172845323387441</v>
+        <v>0.1712905643273112</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>166</v>
@@ -1286,19 +1286,19 @@
         <v>175747</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>151554</v>
+        <v>153080</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>202987</v>
+        <v>202732</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1192615077554918</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1028440629601387</v>
+        <v>0.1038798866785938</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1377469187560841</v>
+        <v>0.1375738760926907</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>192179</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>168237</v>
+        <v>170128</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>217940</v>
+        <v>219047</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2123600753036234</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1859037658730918</v>
+        <v>0.1879934864168916</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2408257734478761</v>
+        <v>0.2420492609844135</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>101</v>
@@ -1336,19 +1336,19 @@
         <v>110471</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>88753</v>
+        <v>91442</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>130036</v>
+        <v>131844</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.194267220211607</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1560751683478769</v>
+        <v>0.1608029553072474</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2286716556383152</v>
+        <v>0.2318507808677557</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>288</v>
@@ -1357,19 +1357,19 @@
         <v>302650</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>273667</v>
+        <v>272186</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>336427</v>
+        <v>337119</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2053782245899395</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1857103460454229</v>
+        <v>0.1847048871844554</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2282986716309379</v>
+        <v>0.2287681861738648</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>190315</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>166554</v>
+        <v>165758</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>219182</v>
+        <v>215813</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2103007003064888</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1840441650847457</v>
+        <v>0.183164941086195</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2421987663899563</v>
+        <v>0.2384754181795135</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>123</v>
@@ -1407,19 +1407,19 @@
         <v>130413</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>110557</v>
+        <v>111719</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>153551</v>
+        <v>149331</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2293352827671672</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1944182257735437</v>
+        <v>0.1964618463480265</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2700239577714353</v>
+        <v>0.2626021006112825</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>305</v>
@@ -1428,19 +1428,19 @@
         <v>320729</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>289626</v>
+        <v>288100</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>352643</v>
+        <v>352338</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2176459541352449</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1965401379855057</v>
+        <v>0.1955044789737183</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2393031692940129</v>
+        <v>0.2390963509997303</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>244084</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>218407</v>
+        <v>215370</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>273831</v>
+        <v>270561</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2697155258171098</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2413427322239744</v>
+        <v>0.237986622320635</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3025858979214419</v>
+        <v>0.2989735200388875</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>155</v>
@@ -1478,19 +1478,19 @@
         <v>163311</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>143556</v>
+        <v>143421</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>186901</v>
+        <v>187287</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2871873067274839</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2524474533457538</v>
+        <v>0.2522094510719913</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3286700935615546</v>
+        <v>0.3293505020926665</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>378</v>
@@ -1499,19 +1499,19 @@
         <v>407395</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>371515</v>
+        <v>369950</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>444439</v>
+        <v>443591</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2764577102538963</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2521092848699054</v>
+        <v>0.2510477672661392</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3015958741209522</v>
+        <v>0.3010202613987875</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>29331</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20629</v>
+        <v>19463</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41865</v>
+        <v>41068</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09301265247850678</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06541859548966519</v>
+        <v>0.06171955155431664</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1327610029198891</v>
+        <v>0.1302343582450768</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -1624,19 +1624,19 @@
         <v>29755</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20337</v>
+        <v>20106</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42501</v>
+        <v>43370</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1284267252854811</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08777956280711911</v>
+        <v>0.08678218365334991</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1834397163476198</v>
+        <v>0.1871913528116776</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>54</v>
@@ -1645,19 +1645,19 @@
         <v>59086</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44448</v>
+        <v>44437</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>74617</v>
+        <v>76998</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1080118496368799</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08125351856407005</v>
+        <v>0.08123384744835957</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1364044543023931</v>
+        <v>0.1407572489719884</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>37213</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>25872</v>
+        <v>26352</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52619</v>
+        <v>51024</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1180085974167282</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08204312919121802</v>
+        <v>0.08356578103744</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1668626724614485</v>
+        <v>0.1618070075611848</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -1695,19 +1695,19 @@
         <v>11753</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6626</v>
+        <v>5912</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19371</v>
+        <v>19764</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05072648703589482</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02859988168759386</v>
+        <v>0.02551584217846636</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08361060094132024</v>
+        <v>0.08530346420421482</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>42</v>
@@ -1716,19 +1716,19 @@
         <v>48966</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>34875</v>
+        <v>34990</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>64556</v>
+        <v>64948</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08951208292843135</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06375360004365141</v>
+        <v>0.06396300610875948</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1180116311763518</v>
+        <v>0.1187279837271954</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>51548</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>38812</v>
+        <v>38554</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>66943</v>
+        <v>65843</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.163466440016804</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1230795348848976</v>
+        <v>0.1222619548180688</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2122887791616241</v>
+        <v>0.2087992052357743</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>52</v>
@@ -1766,19 +1766,19 @@
         <v>55187</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>41872</v>
+        <v>41915</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>68608</v>
+        <v>68972</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2381967964865765</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.180725874213794</v>
+        <v>0.1809116939623548</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2961236082404751</v>
+        <v>0.2976928455909973</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>99</v>
@@ -1787,19 +1787,19 @@
         <v>106735</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>89296</v>
+        <v>87610</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>128275</v>
+        <v>127937</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1951175679883057</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1632385600627766</v>
+        <v>0.1601567352661118</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2344936331056788</v>
+        <v>0.2338768434142106</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>75499</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>60143</v>
+        <v>61846</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>92624</v>
+        <v>93753</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2394189406247693</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1907233135009216</v>
+        <v>0.1961229089255969</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2937277398705636</v>
+        <v>0.2973060504663768</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>35</v>
@@ -1837,19 +1837,19 @@
         <v>39927</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>28349</v>
+        <v>28836</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>53800</v>
+        <v>53320</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1723337780974823</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1223584570823741</v>
+        <v>0.1244619333932091</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2322115851354291</v>
+        <v>0.2301379238567964</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>104</v>
@@ -1858,19 +1858,19 @@
         <v>115426</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>96742</v>
+        <v>94300</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>138803</v>
+        <v>136042</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2110058409896966</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1768501115745353</v>
+        <v>0.1723869256871422</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2537393830257703</v>
+        <v>0.2486926226457534</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>121751</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>104155</v>
+        <v>103861</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>140979</v>
+        <v>141629</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3860933694631917</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3302934265409001</v>
+        <v>0.3293617191369573</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4470686189468702</v>
+        <v>0.449129515663725</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>82</v>
@@ -1908,19 +1908,19 @@
         <v>95065</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>80217</v>
+        <v>78947</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>111708</v>
+        <v>111016</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4103162130945652</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3462306996939613</v>
+        <v>0.3407505912184609</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4821522078283386</v>
+        <v>0.4791617634027818</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>193</v>
@@ -1929,19 +1929,19 @@
         <v>216816</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>191661</v>
+        <v>191739</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>243312</v>
+        <v>244073</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3963526584566864</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3503684817084824</v>
+        <v>0.3505101192339717</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4447888257018999</v>
+        <v>0.4461809535119296</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>256462</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>227755</v>
+        <v>222724</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>289377</v>
+        <v>286293</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1831838107220583</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1626792835889046</v>
+        <v>0.1590856386556194</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2066943267364654</v>
+        <v>0.2044911478114639</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>140</v>
@@ -2054,19 +2054,19 @@
         <v>152700</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>128482</v>
+        <v>129745</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>178946</v>
+        <v>175779</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1632536441038213</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1373613001134207</v>
+        <v>0.1387118142120051</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1913133184010911</v>
+        <v>0.1879277793054547</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>383</v>
@@ -2075,19 +2075,19 @@
         <v>409162</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>374017</v>
+        <v>372269</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>450495</v>
+        <v>449092</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.175201474421394</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.160152607063004</v>
+        <v>0.1594040821874095</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1928999164084235</v>
+        <v>0.1922991270691332</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>160687</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>136990</v>
+        <v>137598</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>186174</v>
+        <v>187846</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1147740435456121</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09784851064753974</v>
+        <v>0.09828267546268619</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1329792467981765</v>
+        <v>0.1341734503935924</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>105</v>
@@ -2125,19 +2125,19 @@
         <v>111852</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>91747</v>
+        <v>94353</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>132313</v>
+        <v>132600</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1195823610367392</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09808807367882166</v>
+        <v>0.1008740606189083</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1414572463733514</v>
+        <v>0.141764088663205</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>255</v>
@@ -2146,19 +2146,19 @@
         <v>272539</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>240835</v>
+        <v>240618</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>305963</v>
+        <v>307264</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.116699848180854</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.103124597746148</v>
+        <v>0.1030316598476645</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1310119259787471</v>
+        <v>0.1315689016296988</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>277875</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>244556</v>
+        <v>249715</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>309506</v>
+        <v>309574</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1984786992152328</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1746796011795656</v>
+        <v>0.1783648001208539</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2210719915040704</v>
+        <v>0.2211206677362861</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>179</v>
@@ -2196,19 +2196,19 @@
         <v>194333</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>168507</v>
+        <v>170781</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>219073</v>
+        <v>221281</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2077635002883028</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1801527058906795</v>
+        <v>0.1825844913068498</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2342133094565486</v>
+        <v>0.2365743554510466</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>446</v>
@@ -2217,19 +2217,19 @@
         <v>472208</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>434519</v>
+        <v>435186</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>516835</v>
+        <v>513761</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2021974039340481</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1860589380690562</v>
+        <v>0.1863446329680724</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2213063006746717</v>
+        <v>0.2199900726773192</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>296877</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>267906</v>
+        <v>265109</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>331150</v>
+        <v>327895</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2120510478553604</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.191358189636954</v>
+        <v>0.1893602024477685</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2365317091292985</v>
+        <v>0.2342066949740719</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>164</v>
@@ -2267,19 +2267,19 @@
         <v>176676</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>155382</v>
+        <v>152621</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>203414</v>
+        <v>202298</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1888860599086367</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1661204745676722</v>
+        <v>0.1631690262459627</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2174721775261009</v>
+        <v>0.2162795114161046</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>443</v>
@@ -2288,19 +2288,19 @@
         <v>473552</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>432418</v>
+        <v>434641</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>515193</v>
+        <v>516639</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2027731161785433</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1851594406210399</v>
+        <v>0.1861112986113349</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2206035916743866</v>
+        <v>0.2212226221041916</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>408125</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>373295</v>
+        <v>371586</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>444803</v>
+        <v>446899</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2915123986617363</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2666345976348909</v>
+        <v>0.2654139745954174</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3177106603737471</v>
+        <v>0.3192081057202855</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>275</v>
@@ -2338,19 +2338,19 @@
         <v>299795</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>267699</v>
+        <v>268606</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>327609</v>
+        <v>331665</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3205144346625</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2861998098117728</v>
+        <v>0.2871693471270261</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.350250439149092</v>
+        <v>0.3545873629099263</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>650</v>
@@ -2359,19 +2359,19 @@
         <v>707920</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>664371</v>
+        <v>657774</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>760710</v>
+        <v>760118</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3031281572851606</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2844808470964777</v>
+        <v>0.281655817604584</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3257329133205354</v>
+        <v>0.3254791492151575</v>
       </c>
     </row>
     <row r="27">
@@ -2702,19 +2702,19 @@
         <v>37616</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28003</v>
+        <v>27269</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48150</v>
+        <v>48159</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2662123239573457</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1981837476411699</v>
+        <v>0.1929893695836516</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3407668158788525</v>
+        <v>0.3408271450950147</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -2723,19 +2723,19 @@
         <v>14138</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8567</v>
+        <v>8166</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21883</v>
+        <v>22415</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2045218218315639</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1239269023257887</v>
+        <v>0.1181345269840998</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3165547910640925</v>
+        <v>0.3242541422384654</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -2744,19 +2744,19 @@
         <v>51754</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>39514</v>
+        <v>40253</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64616</v>
+        <v>65180</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2459461179285028</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1877819135692984</v>
+        <v>0.1912904033616337</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3070727325517689</v>
+        <v>0.3097522135805222</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>28587</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18928</v>
+        <v>20086</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>38662</v>
+        <v>39677</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2023173827595534</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.133958016231849</v>
+        <v>0.1421493032216758</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.273621649730932</v>
+        <v>0.2808024111253353</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -2794,19 +2794,19 @@
         <v>16337</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9978</v>
+        <v>10389</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23697</v>
+        <v>23999</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2363328696571805</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1443348924305149</v>
+        <v>0.1502833385596382</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3427921116162618</v>
+        <v>0.3471622236180907</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>42</v>
@@ -2815,19 +2815,19 @@
         <v>44924</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33840</v>
+        <v>33063</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>58583</v>
+        <v>58414</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2134919532669089</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1608147686885962</v>
+        <v>0.1571242655839253</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2783995970434108</v>
+        <v>0.2775981327518873</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>31839</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22699</v>
+        <v>22489</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42740</v>
+        <v>42193</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2253310057435612</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1606475950831811</v>
+        <v>0.1591554102255262</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.302480364481318</v>
+        <v>0.2986086209190028</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -2865,19 +2865,19 @@
         <v>14939</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9257</v>
+        <v>8487</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22435</v>
+        <v>21716</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2161063579309065</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1339136452666529</v>
+        <v>0.1227673856484938</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3245421904828669</v>
+        <v>0.3141465801800294</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>45</v>
@@ -2886,19 +2886,19 @@
         <v>46778</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>35987</v>
+        <v>35633</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>59584</v>
+        <v>59573</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2223005779358316</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1710190059335773</v>
+        <v>0.1693369391108678</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.283157129639104</v>
+        <v>0.2831029359345772</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>23346</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14981</v>
+        <v>15134</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32197</v>
+        <v>33555</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1652252156002497</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1060264655203922</v>
+        <v>0.1071027288803791</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2278640193627368</v>
+        <v>0.2374723863001763</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -2936,19 +2936,19 @@
         <v>11944</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6788</v>
+        <v>6928</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19167</v>
+        <v>19716</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1727751083967161</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09819288356625923</v>
+        <v>0.1002201125245801</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.27727372102385</v>
+        <v>0.2852032663959868</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -2957,19 +2957,19 @@
         <v>35290</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25784</v>
+        <v>24649</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48489</v>
+        <v>46998</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1677054626015936</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1225331276975538</v>
+        <v>0.1171400950688385</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2304307739107648</v>
+        <v>0.2233441267183491</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>19911</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12430</v>
+        <v>12074</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30326</v>
+        <v>29773</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1409140719392899</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08797189426122562</v>
+        <v>0.08545195792631338</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2146231261758484</v>
+        <v>0.2107121503766324</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -3007,19 +3007,19 @@
         <v>11770</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6027</v>
+        <v>6150</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18331</v>
+        <v>18958</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.170263842183633</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0871841569025896</v>
+        <v>0.08895963311989102</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2651786095062897</v>
+        <v>0.2742442592848087</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>29</v>
@@ -3028,19 +3028,19 @@
         <v>31681</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>21569</v>
+        <v>22512</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>42828</v>
+        <v>43961</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1505558882671631</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1025029730666623</v>
+        <v>0.1069818288429046</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2035296596786393</v>
+        <v>0.2089135965006394</v>
       </c>
     </row>
     <row r="9">
@@ -3132,19 +3132,19 @@
         <v>202620</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>176479</v>
+        <v>179056</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>226090</v>
+        <v>230585</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2194759437883095</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1911593917463303</v>
+        <v>0.1939517350765016</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2448978496595105</v>
+        <v>0.2497665788690306</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>96</v>
@@ -3153,19 +3153,19 @@
         <v>97703</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79656</v>
+        <v>79301</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>117402</v>
+        <v>115973</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.150186215649413</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1224447808692801</v>
+        <v>0.1218990540167145</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1804678794187103</v>
+        <v>0.178271254311403</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>284</v>
@@ -3174,19 +3174,19 @@
         <v>300323</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>270276</v>
+        <v>268634</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>331804</v>
+        <v>332615</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1908334463246776</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1717404722178298</v>
+        <v>0.1706973320256962</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2108370528363999</v>
+        <v>0.2113523367815935</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>149922</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>126720</v>
+        <v>127119</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>173359</v>
+        <v>173279</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1623935147451967</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.137261904570914</v>
+        <v>0.1376936751964162</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1877801733822308</v>
+        <v>0.1876937452989867</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>95</v>
@@ -3224,19 +3224,19 @@
         <v>98135</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>78433</v>
+        <v>79975</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>116480</v>
+        <v>118283</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1508509001599659</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1205654038636567</v>
+        <v>0.1229362242220086</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1790499555971463</v>
+        <v>0.181822016188765</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>234</v>
@@ -3245,19 +3245,19 @@
         <v>248057</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>219313</v>
+        <v>219077</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>278690</v>
+        <v>279601</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1576221104135413</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1393571949022258</v>
+        <v>0.1392073414599063</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1770871795623825</v>
+        <v>0.1776661088239187</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>198568</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>173418</v>
+        <v>173684</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>225473</v>
+        <v>226981</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2150859777023468</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.187844329597933</v>
+        <v>0.1881323416553993</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2442295212824071</v>
+        <v>0.2458632640697692</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>156</v>
@@ -3295,19 +3295,19 @@
         <v>160690</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>141543</v>
+        <v>140332</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>182357</v>
+        <v>184577</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2470090029693631</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2175771070666683</v>
+        <v>0.2157158540353803</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2803156892187996</v>
+        <v>0.283727091208298</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>343</v>
@@ -3316,19 +3316,19 @@
         <v>359258</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>327132</v>
+        <v>325612</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>395610</v>
+        <v>393413</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2282820919721138</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2078682476513134</v>
+        <v>0.2069025018217371</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2513810301104554</v>
+        <v>0.2499850918242758</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>201178</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>176862</v>
+        <v>177788</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>227859</v>
+        <v>227327</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2179132759769703</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1915747667599287</v>
+        <v>0.192577666979214</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2468145460446651</v>
+        <v>0.2462376855772952</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>121</v>
@@ -3366,19 +3366,19 @@
         <v>123376</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>104272</v>
+        <v>104749</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>144217</v>
+        <v>145300</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1896514146629016</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1602845771462025</v>
+        <v>0.1610180723219648</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2216870496471676</v>
+        <v>0.2233512025133606</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>312</v>
@@ -3387,19 +3387,19 @@
         <v>324554</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>291562</v>
+        <v>289958</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>358528</v>
+        <v>355170</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.20623058775249</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1852663822425342</v>
+        <v>0.1842471510555794</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2278184769019126</v>
+        <v>0.2256842884093496</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>170913</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>146890</v>
+        <v>146160</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>195130</v>
+        <v>199606</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1851312877871767</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1591092679067606</v>
+        <v>0.1583185827662434</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2113627643821998</v>
+        <v>0.2162106423851465</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>168</v>
@@ -3437,19 +3437,19 @@
         <v>170639</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>151271</v>
+        <v>150647</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>193200</v>
+        <v>195630</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2623024665583565</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2325298634567989</v>
+        <v>0.2315704255463869</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2969829502563654</v>
+        <v>0.3007180355808121</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>326</v>
@@ -3458,19 +3458,19 @@
         <v>341553</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>307984</v>
+        <v>309031</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>376939</v>
+        <v>375241</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2170317635371773</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1957012099439744</v>
+        <v>0.1963663712641105</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2395169749001098</v>
+        <v>0.2384380106555818</v>
       </c>
     </row>
     <row r="15">
@@ -3562,19 +3562,19 @@
         <v>60647</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>47448</v>
+        <v>46708</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>76693</v>
+        <v>75876</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1740529174179903</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1361740507333625</v>
+        <v>0.1340483900048481</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2201045866787188</v>
+        <v>0.2177601243642412</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -3583,19 +3583,19 @@
         <v>49299</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37436</v>
+        <v>37810</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>64094</v>
+        <v>63186</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1598254340046097</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1213658273201503</v>
+        <v>0.1225796939476888</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2077906758239524</v>
+        <v>0.204847274607338</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>101</v>
@@ -3604,19 +3604,19 @@
         <v>109945</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>91994</v>
+        <v>90049</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>130794</v>
+        <v>130891</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1673721881242366</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1400444290147352</v>
+        <v>0.1370829127534028</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1991113518970224</v>
+        <v>0.1992589346766059</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>50182</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>37550</v>
+        <v>37811</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>64036</v>
+        <v>64144</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1440211229141595</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1077653248239325</v>
+        <v>0.1085157650549194</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1837787907892345</v>
+        <v>0.1840899737377228</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>38</v>
@@ -3654,19 +3654,19 @@
         <v>37902</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>28056</v>
+        <v>26490</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>50263</v>
+        <v>49384</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1228768853297574</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09095717014263917</v>
+        <v>0.08587857495002002</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1629533140090997</v>
+        <v>0.1601005844872062</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>85</v>
@@ -3675,19 +3675,19 @@
         <v>88084</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>72534</v>
+        <v>71990</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>109682</v>
+        <v>107302</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1340925274401804</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1104194554324596</v>
+        <v>0.1095921825951916</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1669710504777555</v>
+        <v>0.163348805674107</v>
       </c>
     </row>
     <row r="18">
@@ -3704,19 +3704,19 @@
         <v>73146</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>59201</v>
+        <v>56075</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>91611</v>
+        <v>88733</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2099266572829837</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1699048999836469</v>
+        <v>0.1609333163525196</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.262919261228153</v>
+        <v>0.2546590846320257</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>65</v>
@@ -3725,19 +3725,19 @@
         <v>65608</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>51683</v>
+        <v>51608</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>81401</v>
+        <v>79253</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2127013206972142</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.167555751249083</v>
+        <v>0.1673121380236439</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2639006782790053</v>
+        <v>0.2569374023259977</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>129</v>
@@ -3746,19 +3746,19 @@
         <v>138755</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>119174</v>
+        <v>118234</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>161125</v>
+        <v>161227</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2112295423128353</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1814207720946067</v>
+        <v>0.179990117253746</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2452841162474892</v>
+        <v>0.2454388022584328</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>73021</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>57490</v>
+        <v>57556</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>87996</v>
+        <v>88875</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2095678434270637</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1649947267950241</v>
+        <v>0.1651815558245471</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2525447313750234</v>
+        <v>0.2550665813624044</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>56</v>
@@ -3796,19 +3796,19 @@
         <v>58385</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>45230</v>
+        <v>45241</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>73300</v>
+        <v>74707</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.18928384904529</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1466347184183771</v>
+        <v>0.1466720543216539</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2376368849511328</v>
+        <v>0.2421982298676387</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>124</v>
@@ -3817,19 +3817,19 @@
         <v>131407</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>111716</v>
+        <v>111090</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>154026</v>
+        <v>153846</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.200043188115696</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1700682089269291</v>
+        <v>0.1691144464996926</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2344769952116866</v>
+        <v>0.2342030984476274</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>91441</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>75250</v>
+        <v>75241</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>107517</v>
+        <v>108267</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2624314589578027</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2159633169223571</v>
+        <v>0.215939335645695</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3085689823010418</v>
+        <v>0.3107219380148497</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>93</v>
@@ -3867,19 +3867,19 @@
         <v>97259</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>80557</v>
+        <v>80823</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>114797</v>
+        <v>112760</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3153125109231287</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2611661779905441</v>
+        <v>0.2620280038677928</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3721714560832735</v>
+        <v>0.365567619188121</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>179</v>
@@ -3888,19 +3888,19 @@
         <v>188700</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>167618</v>
+        <v>165481</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>214979</v>
+        <v>212685</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2872625540070517</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2551679209529696</v>
+        <v>0.2519150126325879</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3272671142469166</v>
+        <v>0.3237749173204637</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>300883</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>272873</v>
+        <v>270800</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>333263</v>
+        <v>338087</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2129481862797872</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1931244037705612</v>
+        <v>0.1916572389440381</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2358655969492182</v>
+        <v>0.2392794757597538</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>157</v>
@@ -4013,19 +4013,19 @@
         <v>161140</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>136275</v>
+        <v>140887</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>184730</v>
+        <v>187648</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1567315055285303</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1325468335453868</v>
+        <v>0.1370331367995779</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1796762162184913</v>
+        <v>0.1825149040218593</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>436</v>
@@ -4034,19 +4034,19 @@
         <v>462022</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>421439</v>
+        <v>423315</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>505039</v>
+        <v>503343</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1892708909134098</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1726456814996652</v>
+        <v>0.1734142540003555</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2068930673127227</v>
+        <v>0.2061983056754347</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>228692</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>203125</v>
+        <v>202364</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>260795</v>
+        <v>260475</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1618553129471735</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1437607339574682</v>
+        <v>0.143222250081825</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1845761245837904</v>
+        <v>0.1843499600564178</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>149</v>
@@ -4084,19 +4084,19 @@
         <v>152374</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>130520</v>
+        <v>128705</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>179663</v>
+        <v>176166</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1482058402267011</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1269492489261452</v>
+        <v>0.1251839333447111</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1747481308934196</v>
+        <v>0.1713463879252071</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>361</v>
@@ -4105,19 +4105,19 @@
         <v>381066</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>343608</v>
+        <v>345273</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>418625</v>
+        <v>420787</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1561064392520522</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1407615542494793</v>
+        <v>0.1414438260406909</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1714927579180097</v>
+        <v>0.1723786416272398</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>303553</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>272757</v>
+        <v>272610</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>333294</v>
+        <v>335621</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2148382008066056</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1930424691797739</v>
+        <v>0.1929383602067803</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2358875529008997</v>
+        <v>0.2375343887040666</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>236</v>
@@ -4155,19 +4155,19 @@
         <v>241238</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>218314</v>
+        <v>215897</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>269574</v>
+        <v>269925</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.23463836423414</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2123414510111152</v>
+        <v>0.2099914720177123</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.26219916829102</v>
+        <v>0.2625410434087437</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>517</v>
@@ -4176,19 +4176,19 @@
         <v>544791</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>498654</v>
+        <v>500025</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>585511</v>
+        <v>586490</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2231776173554169</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2042774275702806</v>
+        <v>0.2048392001082843</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2398588699244985</v>
+        <v>0.2402598806851406</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>297545</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>267942</v>
+        <v>265586</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>330343</v>
+        <v>327932</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2105862550296816</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1896348046999025</v>
+        <v>0.187967179764709</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2337983168774488</v>
+        <v>0.23209238970145</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>189</v>
@@ -4226,19 +4226,19 @@
         <v>193705</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>171006</v>
+        <v>168531</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>221000</v>
+        <v>218865</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1884064228990636</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1663282039062557</v>
+        <v>0.1639202778284685</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2149540417528709</v>
+        <v>0.2128777170090792</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>470</v>
@@ -4247,19 +4247,19 @@
         <v>491251</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>446429</v>
+        <v>453017</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>528724</v>
+        <v>528840</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2012445715735383</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1828832342878024</v>
+        <v>0.1855817336339818</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2165959351759795</v>
+        <v>0.2166433830836354</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>282266</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>253118</v>
+        <v>253019</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>314995</v>
+        <v>313459</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.199772044936752</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1791429875204981</v>
+        <v>0.1790730245540799</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2229361043262356</v>
+        <v>0.2218488877250596</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>273</v>
@@ -4297,19 +4297,19 @@
         <v>279668</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>251767</v>
+        <v>252033</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>308812</v>
+        <v>308547</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2720178671115649</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2448801359263238</v>
+        <v>0.2451381663987013</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3003640100602337</v>
+        <v>0.3001060441973664</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>534</v>
@@ -4318,19 +4318,19 @@
         <v>561934</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>524655</v>
+        <v>519469</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>604678</v>
+        <v>609256</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2302004809055828</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2149287131245077</v>
+        <v>0.2128043919581068</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2477107439108887</v>
+        <v>0.2495861902721768</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>20375</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12931</v>
+        <v>12761</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28693</v>
+        <v>28133</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.498465385129774</v>
+        <v>0.4984653851297741</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3163551659487476</v>
+        <v>0.3121836027849082</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7019506285235754</v>
+        <v>0.6882458172445697</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -4682,19 +4682,19 @@
         <v>6014</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2740</v>
+        <v>2974</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9852</v>
+        <v>10162</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2661078716811295</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.121259185483074</v>
+        <v>0.1315757913863224</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4359401105454663</v>
+        <v>0.4496468278277702</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -4703,19 +4703,19 @@
         <v>26389</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18278</v>
+        <v>17870</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36784</v>
+        <v>36910</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4157380250866247</v>
+        <v>0.4157380250866246</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2879514937257519</v>
+        <v>0.2815299849540512</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5794905629956769</v>
+        <v>0.5814857542719406</v>
       </c>
     </row>
     <row r="5">
@@ -4732,19 +4732,19 @@
         <v>4671</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1269</v>
+        <v>1209</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11356</v>
+        <v>10629</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1142832881290048</v>
+        <v>0.1142832881290049</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03103563338286266</v>
+        <v>0.02958059610964523</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2778160977651103</v>
+        <v>0.2600324818984506</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -4753,19 +4753,19 @@
         <v>4052</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1139</v>
+        <v>903</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8180</v>
+        <v>8713</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1793054349344261</v>
+        <v>0.1793054349344262</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05039922459996095</v>
+        <v>0.03994887720170753</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3619383523108232</v>
+        <v>0.3855285809171763</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -4774,19 +4774,19 @@
         <v>8724</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4247</v>
+        <v>4188</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16327</v>
+        <v>16991</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.137433434942482</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06690088477388614</v>
+        <v>0.06597466105935197</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2572080188853665</v>
+        <v>0.2676820380223728</v>
       </c>
     </row>
     <row r="6">
@@ -4803,19 +4803,19 @@
         <v>7073</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2661</v>
+        <v>2558</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13913</v>
+        <v>13738</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1730240510172977</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06509713692756258</v>
+        <v>0.06258357800593732</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3403622304791858</v>
+        <v>0.3360992573691863</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -4824,19 +4824,19 @@
         <v>6748</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10592</v>
+        <v>10978</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2986027487741596</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1558780711513492</v>
+        <v>0.1558558374558337</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4686926004177885</v>
+        <v>0.4857403529170196</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>16</v>
@@ -4845,19 +4845,19 @@
         <v>13821</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8654</v>
+        <v>8214</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21619</v>
+        <v>21815</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2177344371326057</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.136332107775194</v>
+        <v>0.1294066993773968</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3405839086782538</v>
+        <v>0.3436654303012264</v>
       </c>
     </row>
     <row r="7">
@@ -4874,19 +4874,19 @@
         <v>3549</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>954</v>
+        <v>937</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8962</v>
+        <v>8031</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08681899004011515</v>
+        <v>0.08681899004011517</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02333337502893541</v>
+        <v>0.0229184303538139</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2192373687963278</v>
+        <v>0.1964607192618524</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -4895,19 +4895,19 @@
         <v>4486</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2005</v>
+        <v>1803</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8746</v>
+        <v>8482</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1984791411355024</v>
+        <v>0.1984791411355025</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08872151616720925</v>
+        <v>0.07978182408025571</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3870048536472869</v>
+        <v>0.375317754045138</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -4916,19 +4916,19 @@
         <v>8034</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4555</v>
+        <v>4211</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14197</v>
+        <v>13451</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.126573889225599</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07175347742598119</v>
+        <v>0.06634057741564042</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2236593706134359</v>
+        <v>0.2119022245418249</v>
       </c>
     </row>
     <row r="8">
@@ -4945,19 +4945,19 @@
         <v>5208</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1432</v>
+        <v>1454</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13812</v>
+        <v>12821</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1274082856838083</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03502367573267495</v>
+        <v>0.03558275521173151</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3378895762543694</v>
+        <v>0.3136526455742529</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -4969,16 +4969,16 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4195</v>
+        <v>4178</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.05750480347478207</v>
+        <v>0.05750480347478208</v>
       </c>
       <c r="O8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1856254161242493</v>
+        <v>0.1848610931266371</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -4987,19 +4987,19 @@
         <v>6508</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2453</v>
+        <v>2334</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14882</v>
+        <v>14790</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1025202136126887</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03864016256946116</v>
+        <v>0.03676991300440551</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2344561803499155</v>
+        <v>0.2329951884333988</v>
       </c>
     </row>
     <row r="9">
@@ -5091,19 +5091,19 @@
         <v>96238</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>77206</v>
+        <v>78219</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>115727</v>
+        <v>116299</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3272027580444362</v>
+        <v>0.3272027580444363</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2624954220989404</v>
+        <v>0.2659389691385403</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3934647012079586</v>
+        <v>0.3954108568029185</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -5112,19 +5112,19 @@
         <v>52217</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40493</v>
+        <v>41117</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63561</v>
+        <v>63550</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.208756758674628</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1618861893670591</v>
+        <v>0.1643809983320418</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2541120215017918</v>
+        <v>0.2540669678791304</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>134</v>
@@ -5133,19 +5133,19 @@
         <v>148454</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>127368</v>
+        <v>127777</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>173807</v>
+        <v>170857</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2727666774668624</v>
+        <v>0.2727666774668623</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2340234274068256</v>
+        <v>0.2347745427195303</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.319349281468166</v>
+        <v>0.3139293449414249</v>
       </c>
     </row>
     <row r="11">
@@ -5162,19 +5162,19 @@
         <v>63797</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>50619</v>
+        <v>48884</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>81899</v>
+        <v>81293</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2169077490930686</v>
+        <v>0.2169077490930685</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1721025312093417</v>
+        <v>0.1662041235469592</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2784535411138978</v>
+        <v>0.276393288382433</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>59</v>
@@ -5183,19 +5183,19 @@
         <v>42683</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>33142</v>
+        <v>33422</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>54297</v>
+        <v>53612</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1706421680736706</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1324993815393205</v>
+        <v>0.1336179332246055</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2170750061586277</v>
+        <v>0.2143366174409851</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>115</v>
@@ -5204,19 +5204,19 @@
         <v>106480</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>88870</v>
+        <v>87751</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>125692</v>
+        <v>126219</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1956447523710181</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1632873748542044</v>
+        <v>0.1612313912570391</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2309427445434136</v>
+        <v>0.2319124570751766</v>
       </c>
     </row>
     <row r="12">
@@ -5233,19 +5233,19 @@
         <v>63741</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>49614</v>
+        <v>51014</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>80392</v>
+        <v>81350</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2167163838173831</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1686847725917021</v>
+        <v>0.1734439949651914</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2733290792147776</v>
+        <v>0.276586212894274</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>86</v>
@@ -5254,19 +5254,19 @@
         <v>63806</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>51265</v>
+        <v>51873</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>77038</v>
+        <v>76521</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2550892213417221</v>
+        <v>0.255089221341722</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2049543205423045</v>
+        <v>0.2073823782454735</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3079899499038043</v>
+        <v>0.3059223401043245</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>145</v>
@@ -5275,19 +5275,19 @@
         <v>127547</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>108131</v>
+        <v>107306</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>147083</v>
+        <v>148365</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2343519889587882</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1986770170079327</v>
+        <v>0.1971613743392854</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2702475664885859</v>
+        <v>0.2726027852875805</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>41613</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30465</v>
+        <v>29479</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57245</v>
+        <v>56588</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1414819982660293</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1035779937712278</v>
+        <v>0.1002263353177171</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1946315297492534</v>
+        <v>0.1923946743284177</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -5325,19 +5325,19 @@
         <v>39600</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29785</v>
+        <v>29903</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50971</v>
+        <v>53865</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1583165758127933</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1190767467741002</v>
+        <v>0.1195513370140405</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2037779825802949</v>
+        <v>0.2153456089858308</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>87</v>
@@ -5346,19 +5346,19 @@
         <v>81213</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>65569</v>
+        <v>66116</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>99704</v>
+        <v>101892</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.149218928383558</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1204751206351836</v>
+        <v>0.1214806488802058</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1831940586748294</v>
+        <v>0.1872135551068694</v>
       </c>
     </row>
     <row r="14">
@@ -5375,19 +5375,19 @@
         <v>28733</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17684</v>
+        <v>18678</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>43321</v>
+        <v>45795</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09769111077908287</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06012448991789763</v>
+        <v>0.06350334706864827</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1472890682128551</v>
+        <v>0.1557009162752434</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>61</v>
@@ -5396,19 +5396,19 @@
         <v>51826</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>39840</v>
+        <v>41654</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>63911</v>
+        <v>65008</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2071952760971862</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1592756648919365</v>
+        <v>0.1665285257037818</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2555086254450009</v>
+        <v>0.2598952397705794</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>82</v>
@@ -5417,19 +5417,19 @@
         <v>80559</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>64956</v>
+        <v>63968</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>100216</v>
+        <v>99112</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1480176528197731</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.11934878486135</v>
+        <v>0.1175326979579332</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1841353223170745</v>
+        <v>0.182106851038584</v>
       </c>
     </row>
     <row r="15">
@@ -5521,19 +5521,19 @@
         <v>38862</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28054</v>
+        <v>27637</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52323</v>
+        <v>53204</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2814283398306386</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2031636077262015</v>
+        <v>0.2001411276788298</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3789117941160238</v>
+        <v>0.3852878629670618</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>33</v>
@@ -5542,19 +5542,19 @@
         <v>28075</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19880</v>
+        <v>20418</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36859</v>
+        <v>38500</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2446102503297567</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1732140682647038</v>
+        <v>0.1778997995804612</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3211400710231481</v>
+        <v>0.3354390727464758</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>65</v>
@@ -5563,19 +5563,19 @@
         <v>66937</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>52144</v>
+        <v>53593</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>81425</v>
+        <v>81578</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2647166106043162</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.206213880966469</v>
+        <v>0.2119472996641537</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3220149509676772</v>
+        <v>0.3226176995661082</v>
       </c>
     </row>
     <row r="17">
@@ -5592,19 +5592,19 @@
         <v>15761</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9590</v>
+        <v>9193</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25636</v>
+        <v>26489</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1141354201238745</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0694455434815181</v>
+        <v>0.06657089775648328</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1856469073657</v>
+        <v>0.1918278320267051</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -5613,19 +5613,19 @@
         <v>15362</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9841</v>
+        <v>9647</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23033</v>
+        <v>23303</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.133842736663764</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08574059230299036</v>
+        <v>0.08405066259083219</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2006817073696472</v>
+        <v>0.2030376112365825</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>35</v>
@@ -5634,19 +5634,19 @@
         <v>31122</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>21557</v>
+        <v>21417</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43406</v>
+        <v>42797</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1230805702459136</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08525388684889292</v>
+        <v>0.08469884563542253</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1716569475976085</v>
+        <v>0.1692511258818209</v>
       </c>
     </row>
     <row r="18">
@@ -5663,19 +5663,19 @@
         <v>35016</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24464</v>
+        <v>24392</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>47586</v>
+        <v>48083</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2535808355579501</v>
+        <v>0.2535808355579502</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1771628554057749</v>
+        <v>0.1766428249548685</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3446068265072332</v>
+        <v>0.3482031584141936</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>41</v>
@@ -5684,19 +5684,19 @@
         <v>31005</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>22804</v>
+        <v>23187</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>40187</v>
+        <v>39685</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2701428420633573</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1986846591416589</v>
+        <v>0.2020266410834943</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.350138610729551</v>
+        <v>0.3457653904541701</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>72</v>
@@ -5705,19 +5705,19 @@
         <v>66022</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>51900</v>
+        <v>51347</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>80171</v>
+        <v>79972</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2610983295918632</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2052489338677681</v>
+        <v>0.2030643471091619</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3170553608899321</v>
+        <v>0.3162673238081685</v>
       </c>
     </row>
     <row r="19">
@@ -5734,19 +5734,19 @@
         <v>13816</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7892</v>
+        <v>8232</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22950</v>
+        <v>22967</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1000526300758092</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05714945550625739</v>
+        <v>0.05961391539970812</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1661974773902062</v>
+        <v>0.166320944385813</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -5755,19 +5755,19 @@
         <v>17353</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11126</v>
+        <v>11214</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26108</v>
+        <v>25518</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1511899113300946</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09693447577645928</v>
+        <v>0.09770900387385463</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2274692441060358</v>
+        <v>0.2223343329289319</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>34</v>
@@ -5776,19 +5776,19 @@
         <v>31169</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22274</v>
+        <v>21924</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>42706</v>
+        <v>42725</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.123263839817462</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08808602600356345</v>
+        <v>0.08670538037474233</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1688905643839821</v>
+        <v>0.168964957067983</v>
       </c>
     </row>
     <row r="20">
@@ -5805,19 +5805,19 @@
         <v>34633</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23031</v>
+        <v>22201</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>48751</v>
+        <v>49956</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2508027744117274</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1667849462217663</v>
+        <v>0.1607729164340689</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3530438259814676</v>
+        <v>0.3617677729523607</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -5826,19 +5826,19 @@
         <v>22979</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16235</v>
+        <v>16000</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32036</v>
+        <v>30965</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2002142596130272</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1414513259010846</v>
+        <v>0.1394051168149649</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2791206843085632</v>
+        <v>0.2697921459246199</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>52</v>
@@ -5847,19 +5847,19 @@
         <v>57612</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>44066</v>
+        <v>43334</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>74452</v>
+        <v>76042</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.227840649740445</v>
+        <v>0.2278406497404451</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1742680674847729</v>
+        <v>0.1713737554170807</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2944354933076342</v>
+        <v>0.3007236198210318</v>
       </c>
     </row>
     <row r="21">
@@ -5951,19 +5951,19 @@
         <v>155475</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>131380</v>
+        <v>132472</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>179276</v>
+        <v>179996</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3286393981195109</v>
+        <v>0.328639398119511</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2777085042774546</v>
+        <v>0.280017191243126</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3789492096959157</v>
+        <v>0.3804719294757185</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>105</v>
@@ -5972,19 +5972,19 @@
         <v>86305</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>70379</v>
+        <v>72972</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>102119</v>
+        <v>102951</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2227208545078261</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.181622138531074</v>
+        <v>0.1883134693369639</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2635311350867613</v>
+        <v>0.2656782103536351</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>221</v>
@@ -5993,19 +5993,19 @@
         <v>241780</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>215558</v>
+        <v>215157</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>273039</v>
+        <v>273278</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2809466780776977</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2504768533605026</v>
+        <v>0.2500104485681191</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3172692040471961</v>
+        <v>0.317546947400114</v>
       </c>
     </row>
     <row r="23">
@@ -6022,19 +6022,19 @@
         <v>84230</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>66735</v>
+        <v>66996</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>105461</v>
+        <v>103447</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1780427884874492</v>
+        <v>0.1780427884874493</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1410627157974977</v>
+        <v>0.1416138986950073</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2229218696022005</v>
+        <v>0.2186636406959973</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>84</v>
@@ -6043,19 +6043,19 @@
         <v>62097</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>50996</v>
+        <v>50157</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>77178</v>
+        <v>74970</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.160247896975831</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1316000666142034</v>
+        <v>0.1294364623871499</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1991665750190616</v>
+        <v>0.1934684128495181</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>158</v>
@@ -6064,19 +6064,19 @@
         <v>146326</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>125311</v>
+        <v>122717</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>172354</v>
+        <v>170354</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.1700301520774408</v>
+        <v>0.1700301520774409</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1456106456434331</v>
+        <v>0.1425962841512831</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2002736853026815</v>
+        <v>0.1979503724749824</v>
       </c>
     </row>
     <row r="24">
@@ -6093,19 +6093,19 @@
         <v>105830</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>87606</v>
+        <v>87166</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>125650</v>
+        <v>127061</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2237014905928673</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1851799524187535</v>
+        <v>0.1842494673982695</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2655967389086064</v>
+        <v>0.2685786540169524</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>137</v>
@@ -6114,19 +6114,19 @@
         <v>101559</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>86821</v>
+        <v>87327</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>118440</v>
+        <v>119260</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2620856463035573</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2240517707368888</v>
+        <v>0.2253566909883457</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3056486496220949</v>
+        <v>0.3077651351106574</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>233</v>
@@ -6135,19 +6135,19 @@
         <v>207390</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>182602</v>
+        <v>184216</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>234176</v>
+        <v>233651</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2409850061127063</v>
+        <v>0.2409850061127064</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2121823579937132</v>
+        <v>0.214057338732742</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2721106520358161</v>
+        <v>0.2715005432082376</v>
       </c>
     </row>
     <row r="25">
@@ -6164,19 +6164,19 @@
         <v>58978</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>44393</v>
+        <v>45617</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>75855</v>
+        <v>76647</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1246662600271742</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09383613712134214</v>
+        <v>0.09642417946441061</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1603408374933639</v>
+        <v>0.1620155034595066</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>79</v>
@@ -6185,19 +6185,19 @@
         <v>61438</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>48919</v>
+        <v>49782</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>76207</v>
+        <v>76133</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1585480553916577</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1262425482055018</v>
+        <v>0.1284681840750585</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1966608572168211</v>
+        <v>0.1964701559379064</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>132</v>
@@ -6206,19 +6206,19 @@
         <v>120416</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>100920</v>
+        <v>100202</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>142539</v>
+        <v>143869</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1399224647079762</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1172677186280053</v>
+        <v>0.1164335955565623</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1656297006434702</v>
+        <v>0.1671746166735984</v>
       </c>
     </row>
     <row r="26">
@@ -6235,19 +6235,19 @@
         <v>68574</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>50599</v>
+        <v>51731</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>90548</v>
+        <v>95128</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1449500627729982</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1069547897989749</v>
+        <v>0.1093488226308283</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1913983705464275</v>
+        <v>0.2010792836730957</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>92</v>
@@ -6256,19 +6256,19 @@
         <v>76105</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>61951</v>
+        <v>62336</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>92757</v>
+        <v>91851</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.196397546821128</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1598719823544182</v>
+        <v>0.1608642455092699</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2393713191266978</v>
+        <v>0.2370312365259358</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>140</v>
@@ -6277,19 +6277,19 @@
         <v>144679</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>122538</v>
+        <v>121489</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>172176</v>
+        <v>170874</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1681156990241789</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1423876614475509</v>
+        <v>0.1411694932621237</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2000670752484008</v>
+        <v>0.1985537519675195</v>
       </c>
     </row>
     <row r="27">
